--- a/example_data/Summary/before/Averages by Sample/Avg Zscore_before_.xlsx
+++ b/example_data/Summary/before/Averages by Sample/Avg Zscore_before_.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,103 +438,211 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.053674922901441</v>
+        <v>-0.6974564577352237</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5.406551121524588</v>
+        <v>-2.901754348872304</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.20946809548168</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4.20946809548168</v>
+        <v>-0.6974564577352237</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.8261077804140368</v>
+        <v>-0.03004967621558307</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-5.267185955646188</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-0.8261077804140368</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>-0.8261077804140368</v>
+        <v>-0.03004967621558307</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4.994567819732491</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1.672751940422407</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>4.994567819732491</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.742754829586997</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-2.901754348872304</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.02778066500390077</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1.742754829586997</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6.778417139630124</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>-1.724925569479574</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.860223836272339</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>6.778417139630124</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.488893619100863</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1.860223836272339</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1.193060963528987</v>
       </c>
     </row>
   </sheetData>
@@ -548,7 +656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,103 +667,211 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.053674922901442</v>
+        <v>-0.6974564577352238</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5.406551121524587</v>
+        <v>-2.901754348872304</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.20946809548168</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4.20946809548168</v>
+        <v>-0.6974564577352238</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.8261077804140367</v>
+        <v>-0.03004967621558308</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-5.267185955646185</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-0.8261077804140367</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>-0.8261077804140367</v>
+        <v>-0.03004967621558308</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4.994567819732491</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1.672751940422407</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>4.994567819732491</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.742754829586997</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-2.901754348872304</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.02778066500390079</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1.742754829586997</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6.778417139630124</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>-1.724925569479574</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.86022383627234</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>6.778417139630124</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.488893619100863</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1.86022383627234</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1.193060963528987</v>
       </c>
     </row>
   </sheetData>
@@ -669,7 +885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,105 +896,225 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.053674922901441</v>
+        <v>-0.6974564577352239</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5.406551121524589</v>
+        <v>-2.901754348872304</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.20946809548168</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4.20946809548168</v>
+        <v>-0.6974564577352239</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.8261077804140369</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>-0.03004967621558313</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-5.267185955646187</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-0.8261077804140369</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>-0.8261077804140369</v>
+        <v>-0.03004967621558313</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4.994567819732492</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1.672751940422407</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>4.994567819732492</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.742754829586997</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-2.901754348872304</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.0277806650039008</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1.742754829586997</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6.778417139630124</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>-1.724925569479574</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.860223836272339</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>6.778417139630124</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.488893619100864</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1.860223836272339</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1.193060963528987</v>
       </c>
     </row>
   </sheetData>
